--- a/src/main/resources/simple_sheet.xlsx
+++ b/src/main/resources/simple_sheet.xlsx
@@ -3401,16 +3401,16 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3808,8 +3808,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3870,7 +3870,7 @@
         <v>Should be provided for this model class?</v>
       </c>
       <c r="J1" s="15"/>
-      <c r="K1" s="22" t="str">
+      <c r="K1" s="25" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("Importrange(""https://docs.google.com/spreadsheets/d/1R5ofJAIqAywN97cnBY9R9kqj10AvQOs3Gq472n6iDyc/edit?usp=sharing"",""Dose-response Model!C5"")"),"Creator(s)")</f>
         <v>Creator(s)</v>
       </c>
@@ -3885,7 +3885,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4798,7 +4798,7 @@
       <c r="C27" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="26" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -5004,7 +5004,7 @@
       <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="24" t="s">
@@ -5869,7 +5869,7 @@
       <c r="I76" t="s">
         <v>6</v>
       </c>
-      <c r="K76" s="22" t="s">
+      <c r="K76" s="25" t="s">
         <v>30</v>
       </c>
       <c r="L76" s="23"/>
@@ -5938,7 +5938,7 @@
       <c r="A79" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="22" t="s">
         <v>115</v>
       </c>
       <c r="C79" s="24" t="s">
@@ -6903,7 +6903,7 @@
       <c r="A123" t="s">
         <v>6</v>
       </c>
-      <c r="B123" s="26" t="s">
+      <c r="B123" s="22" t="s">
         <v>165</v>
       </c>
       <c r="C123" s="24" t="s">
@@ -7941,7 +7941,7 @@
       <c r="A158" t="s">
         <v>30</v>
       </c>
-      <c r="B158" s="26" t="s">
+      <c r="B158" s="22" t="s">
         <v>211</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -15607,45 +15607,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="55">
-    <mergeCell ref="B123:B157"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C123:C140"/>
-    <mergeCell ref="C152:C156"/>
-    <mergeCell ref="C143:C150"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C114:C122"/>
-    <mergeCell ref="C105:C110"/>
-    <mergeCell ref="B2:B36"/>
-    <mergeCell ref="C62:C74"/>
-    <mergeCell ref="C12:C23"/>
-    <mergeCell ref="C95:C104"/>
-    <mergeCell ref="C79:C94"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B37:B78"/>
-    <mergeCell ref="B79:B122"/>
-    <mergeCell ref="C48:C61"/>
-    <mergeCell ref="C37:C47"/>
-    <mergeCell ref="D159:F159"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="D114:D122"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="D123:D140"/>
-    <mergeCell ref="D152:D156"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="D143:D150"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D48:D61"/>
-    <mergeCell ref="D37:D47"/>
-    <mergeCell ref="D105:D110"/>
-    <mergeCell ref="D95:D104"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="K76:L76"/>
     <mergeCell ref="D75:F75"/>
@@ -15662,6 +15623,45 @@
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D48:D61"/>
+    <mergeCell ref="D37:D47"/>
+    <mergeCell ref="D105:D110"/>
+    <mergeCell ref="D95:D104"/>
+    <mergeCell ref="D114:D122"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="D123:D140"/>
+    <mergeCell ref="D152:D156"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="D143:D150"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="C105:C110"/>
+    <mergeCell ref="B2:B36"/>
+    <mergeCell ref="C62:C74"/>
+    <mergeCell ref="C12:C23"/>
+    <mergeCell ref="C95:C104"/>
+    <mergeCell ref="C79:C94"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="B37:B78"/>
+    <mergeCell ref="B79:B122"/>
+    <mergeCell ref="C48:C61"/>
+    <mergeCell ref="C37:C47"/>
+    <mergeCell ref="B123:B157"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C123:C140"/>
+    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="C143:C150"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C114:C122"/>
   </mergeCells>
   <dataValidations count="51">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Yes or No" sqref="H9 K14:K18">

--- a/src/main/resources/simple_sheet.xlsx
+++ b/src/main/resources/simple_sheet.xlsx
@@ -2348,7 +2348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="308">
   <si>
     <t>Dimension of "Metadata topic"</t>
   </si>
@@ -3215,6 +3215,63 @@
   </si>
   <si>
     <t>proc1,proc2,proc3</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>benchmark dose</t>
+  </si>
+  <si>
+    <t>maximum residue limit</t>
+  </si>
+  <si>
+    <t>no observed adverse effect level</t>
+  </si>
+  <si>
+    <t>lowest observed adverse effect level</t>
+  </si>
+  <si>
+    <t>acute reference dose</t>
+  </si>
+  <si>
+    <t>acceptable operator exposure level</t>
+  </si>
+  <si>
+    <t>acceptable daily intake</t>
+  </si>
+  <si>
+    <t>hazard ind</t>
+  </si>
+  <si>
+    <t>free text?</t>
+  </si>
+  <si>
+    <t>1989,1990,1991</t>
+  </si>
+  <si>
+    <t>descrip1     , descr2,   descr3</t>
+  </si>
+  <si>
+    <t>50,60,40</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>20.7,19.3,21.1</t>
+  </si>
+  <si>
+    <t>vegetarians,low-calorie,detox</t>
+  </si>
+  <si>
+    <t>a,b,c</t>
+  </si>
+  <si>
+    <t>Österreich,Waldviertel,Graz,Liezen</t>
+  </si>
+  <si>
+    <t>Andorra,Angola,Argentina</t>
   </si>
 </sst>
 </file>
@@ -3350,7 +3407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3401,16 +3458,19 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3808,8 +3868,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3870,7 +3930,7 @@
         <v>Should be provided for this model class?</v>
       </c>
       <c r="J1" s="15"/>
-      <c r="K1" s="25" t="str">
+      <c r="K1" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("Importrange(""https://docs.google.com/spreadsheets/d/1R5ofJAIqAywN97cnBY9R9kqj10AvQOs3Gq472n6iDyc/edit?usp=sharing"",""Dose-response Model!C5"")"),"Creator(s)")</f>
         <v>Creator(s)</v>
       </c>
@@ -3885,7 +3945,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4798,7 +4858,7 @@
       <c r="C27" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -5004,7 +5064,7 @@
       <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="26" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="24" t="s">
@@ -5307,7 +5367,9 @@
       <c r="G50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="I50" t="s">
         <v>6</v>
       </c>
@@ -5351,7 +5413,9 @@
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="4"/>
+      <c r="H52" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="I52" t="s">
         <v>6</v>
       </c>
@@ -5372,7 +5436,9 @@
       <c r="G53" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="4"/>
+      <c r="H53" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I53" t="s">
         <v>6</v>
       </c>
@@ -5393,7 +5459,9 @@
       <c r="G54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="4"/>
+      <c r="H54" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="I54" t="s">
         <v>6</v>
       </c>
@@ -5414,7 +5482,9 @@
       <c r="G55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="4"/>
+      <c r="H55" s="4" t="s">
+        <v>291</v>
+      </c>
       <c r="I55" t="s">
         <v>6</v>
       </c>
@@ -5435,7 +5505,9 @@
       <c r="G56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="4"/>
+      <c r="H56" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="I56" t="s">
         <v>6</v>
       </c>
@@ -5456,7 +5528,9 @@
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="4"/>
+      <c r="H57" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="I57" t="s">
         <v>6</v>
       </c>
@@ -5477,7 +5551,9 @@
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="4"/>
+      <c r="H58" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="I58" t="s">
         <v>6</v>
       </c>
@@ -5498,7 +5574,9 @@
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="4"/>
+      <c r="H59" s="4" t="s">
+        <v>294</v>
+      </c>
       <c r="I59" t="s">
         <v>6</v>
       </c>
@@ -5519,7 +5597,9 @@
       <c r="G60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H60" s="4"/>
+      <c r="H60" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="I60" t="s">
         <v>6</v>
       </c>
@@ -5540,7 +5620,9 @@
       <c r="G61" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H61" s="4"/>
+      <c r="H61" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="I61" t="s">
         <v>6</v>
       </c>
@@ -5588,7 +5670,9 @@
       <c r="G63" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H63" s="4"/>
+      <c r="H63" s="4" t="s">
+        <v>298</v>
+      </c>
       <c r="I63" t="s">
         <v>6</v>
       </c>
@@ -5609,7 +5693,9 @@
       <c r="G64" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H64" s="4"/>
+      <c r="H64" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="I64" t="s">
         <v>6</v>
       </c>
@@ -5630,7 +5716,9 @@
       <c r="G65" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="4"/>
+      <c r="H65" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="I65" t="s">
         <v>6</v>
       </c>
@@ -5651,7 +5739,9 @@
       <c r="G66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H66" s="4"/>
+      <c r="H66" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="I66" t="s">
         <v>6</v>
       </c>
@@ -5672,7 +5762,9 @@
       <c r="G67" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H67" s="4"/>
+      <c r="H67" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="I67" t="s">
         <v>6</v>
       </c>
@@ -5693,7 +5785,9 @@
       <c r="G68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H68" s="4"/>
+      <c r="H68" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="I68" t="s">
         <v>6</v>
       </c>
@@ -5714,7 +5808,9 @@
       <c r="G69" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H69" s="4"/>
+      <c r="H69" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="I69" t="s">
         <v>6</v>
       </c>
@@ -5735,7 +5831,9 @@
       <c r="G70" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H70" s="4"/>
+      <c r="H70" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="I70" t="s">
         <v>6</v>
       </c>
@@ -5756,7 +5854,9 @@
       <c r="G71" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H71" s="4"/>
+      <c r="H71" s="6" t="s">
+        <v>306</v>
+      </c>
       <c r="I71" t="s">
         <v>6</v>
       </c>
@@ -5777,7 +5877,9 @@
       <c r="G72" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H72" s="4"/>
+      <c r="H72" s="27" t="s">
+        <v>307</v>
+      </c>
       <c r="I72" t="s">
         <v>6</v>
       </c>
@@ -5798,7 +5900,9 @@
       <c r="G73" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H73" s="4"/>
+      <c r="H73" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="I73" t="s">
         <v>6</v>
       </c>
@@ -5819,7 +5923,9 @@
       <c r="G74" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H74" s="4"/>
+      <c r="H74" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="I74" t="s">
         <v>6</v>
       </c>
@@ -5869,7 +5975,7 @@
       <c r="I76" t="s">
         <v>6</v>
       </c>
-      <c r="K76" s="25" t="s">
+      <c r="K76" s="22" t="s">
         <v>30</v>
       </c>
       <c r="L76" s="23"/>
@@ -5938,7 +6044,7 @@
       <c r="A79" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="26" t="s">
         <v>115</v>
       </c>
       <c r="C79" s="24" t="s">
@@ -6903,7 +7009,7 @@
       <c r="A123" t="s">
         <v>6</v>
       </c>
-      <c r="B123" s="22" t="s">
+      <c r="B123" s="26" t="s">
         <v>165</v>
       </c>
       <c r="C123" s="24" t="s">
@@ -7941,7 +8047,7 @@
       <c r="A158" t="s">
         <v>30</v>
       </c>
-      <c r="B158" s="22" t="s">
+      <c r="B158" s="26" t="s">
         <v>211</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -15607,6 +15713,45 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="55">
+    <mergeCell ref="B123:B157"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C123:C140"/>
+    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="C143:C150"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C114:C122"/>
+    <mergeCell ref="C105:C110"/>
+    <mergeCell ref="B2:B36"/>
+    <mergeCell ref="C62:C74"/>
+    <mergeCell ref="C12:C23"/>
+    <mergeCell ref="C95:C104"/>
+    <mergeCell ref="C79:C94"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="B37:B78"/>
+    <mergeCell ref="B79:B122"/>
+    <mergeCell ref="C48:C61"/>
+    <mergeCell ref="C37:C47"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="D114:D122"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="D123:D140"/>
+    <mergeCell ref="D152:D156"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="D143:D150"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D48:D61"/>
+    <mergeCell ref="D37:D47"/>
+    <mergeCell ref="D105:D110"/>
+    <mergeCell ref="D95:D104"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="K76:L76"/>
     <mergeCell ref="D75:F75"/>
@@ -15623,45 +15768,6 @@
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D48:D61"/>
-    <mergeCell ref="D37:D47"/>
-    <mergeCell ref="D105:D110"/>
-    <mergeCell ref="D95:D104"/>
-    <mergeCell ref="D114:D122"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="D123:D140"/>
-    <mergeCell ref="D152:D156"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="D143:D150"/>
-    <mergeCell ref="D159:F159"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="C105:C110"/>
-    <mergeCell ref="B2:B36"/>
-    <mergeCell ref="C62:C74"/>
-    <mergeCell ref="C12:C23"/>
-    <mergeCell ref="C95:C104"/>
-    <mergeCell ref="C79:C94"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B37:B78"/>
-    <mergeCell ref="B79:B122"/>
-    <mergeCell ref="C48:C61"/>
-    <mergeCell ref="C37:C47"/>
-    <mergeCell ref="B123:B157"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C123:C140"/>
-    <mergeCell ref="C152:C156"/>
-    <mergeCell ref="C143:C150"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C114:C122"/>
   </mergeCells>
   <dataValidations count="51">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Yes or No" sqref="H9 K14:K18">
